--- a/my1stProject/block1/block1.xlsx
+++ b/my1stProject/block1/block1.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirti\Documents\soc_repository\my1stProject\block1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16275" windowHeight="6270" tabRatio="820" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="9" r:id="rId1"/>
@@ -25,6 +20,7 @@
     <sheet name="ids_template" sheetId="22" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -168,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="451">
   <si>
     <t>Component Name</t>
   </si>
@@ -1060,9 +1056,6 @@
     <t>general</t>
   </si>
   <si>
-    <t>0x00000000</t>
-  </si>
-  <si>
     <t>VLNV</t>
   </si>
   <si>
@@ -1136,30 +1129,6 @@
   </si>
   <si>
     <t>$drefpath</t>
-  </si>
-  <si>
-    <t>default_value1</t>
-  </si>
-  <si>
-    <t>default_value2</t>
-  </si>
-  <si>
-    <t>default_example1</t>
-  </si>
-  <si>
-    <t>default_example2</t>
-  </si>
-  <si>
-    <t>0x00000001</t>
-  </si>
-  <si>
-    <t>0x0000005</t>
-  </si>
-  <si>
-    <t>0x0000003</t>
-  </si>
-  <si>
-    <t>any enums can be described as hierarchy shown here</t>
   </si>
   <si>
     <t>Group</t>
@@ -1576,9 +1545,6 @@
     <t>hclk</t>
   </si>
   <si>
-    <t>hrdata[bus_width-1:0]</t>
-  </si>
-  <si>
     <t>out</t>
   </si>
   <si>
@@ -1588,9 +1554,6 @@
     <t>htrans[1:0]</t>
   </si>
   <si>
-    <t>haddr[addr_width-1:0]</t>
-  </si>
-  <si>
     <t>hwrite</t>
   </si>
   <si>
@@ -1600,9 +1563,6 @@
     <t>hprot[3:0]</t>
   </si>
   <si>
-    <t>hwdata[bus_width-1:0]</t>
-  </si>
-  <si>
     <t>hsel</t>
   </si>
   <si>
@@ -1615,21 +1575,12 @@
     <t>Reg11_enb</t>
   </si>
   <si>
-    <t>Reg11_F_r</t>
-  </si>
-  <si>
-    <t>Reg11_F_in</t>
-  </si>
-  <si>
     <t>Reg11_F_in_enb</t>
   </si>
   <si>
     <t>Reg12_enb</t>
   </si>
   <si>
-    <t>Reg12_F_r</t>
-  </si>
-  <si>
     <t>bus_width</t>
   </si>
   <si>
@@ -1649,6 +1600,33 @@
   </si>
   <si>
     <t>soce,example,1,amba_widget.v</t>
+  </si>
+  <si>
+    <t>hwdata[$bus_width-1:0]</t>
+  </si>
+  <si>
+    <t>haddr[$addr_width-1:0]</t>
+  </si>
+  <si>
+    <t>hrdata[$bus_width-1:0]</t>
+  </si>
+  <si>
+    <t>Reg11_F_in[31:0]</t>
+  </si>
+  <si>
+    <t>Reg11_F_r[31:0]</t>
+  </si>
+  <si>
+    <t>Reg12_F_r[31:0]</t>
+  </si>
+  <si>
+    <t>hrdata[31:0]</t>
+  </si>
+  <si>
+    <t>haddr[31:0]</t>
+  </si>
+  <si>
+    <t>hwdata[31:0]</t>
   </si>
 </sst>
 </file>
@@ -2811,10 +2789,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3184,7 +3162,7 @@
       </c>
       <c r="B1" s="146"/>
       <c r="C1" s="149" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D1" s="150"/>
       <c r="E1" s="150"/>
@@ -3208,34 +3186,34 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="94" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="94" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B13" s="7"/>
     </row>
@@ -3296,21 +3274,21 @@
     </row>
     <row r="34" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="D35" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="E35" s="15" t="s">
         <v>272</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>273</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>213</v>
@@ -3361,21 +3339,21 @@
     </row>
     <row r="43" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="D44" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="E44" s="15" t="s">
         <v>272</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>273</v>
       </c>
       <c r="F44" s="15" t="s">
         <v>213</v>
@@ -3431,10 +3409,10 @@
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C53" s="130" t="s">
         <v>275</v>
-      </c>
-      <c r="C53" s="130" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3464,7 +3442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
@@ -3482,11 +3460,11 @@
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="151" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B1" s="152"/>
       <c r="C1" s="153" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D1" s="154"/>
       <c r="E1" s="154"/>
@@ -3494,19 +3472,19 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G2" s="130"/>
     </row>
@@ -3662,7 +3640,7 @@
     <row r="9" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
       <c r="B9" s="37" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C9" s="38" t="s">
         <v>30</v>
@@ -3717,7 +3695,7 @@
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C13" s="43" t="s">
         <v>41</v>
@@ -3837,7 +3815,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="42" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C23" s="43" t="s">
         <v>64</v>
@@ -3933,7 +3911,7 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="47"/>
       <c r="B30" s="42" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C30" s="43" t="s">
         <v>84</v>
@@ -4024,7 +4002,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="42" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C38" s="43" t="s">
         <v>98</v>
@@ -4037,7 +4015,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="42" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C39" s="43" t="s">
         <v>100</v>
@@ -4051,7 +4029,7 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="47"/>
       <c r="B40" s="42" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C40" s="43" t="s">
         <v>102</v>
@@ -4066,7 +4044,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" s="53" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C41" s="43" t="s">
         <v>105</v>
@@ -4082,7 +4060,7 @@
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="47"/>
       <c r="B42" s="42" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C42" s="43" t="s">
         <v>107</v>
@@ -4097,7 +4075,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" s="42" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C43" s="54" t="s">
         <v>110</v>
@@ -4269,7 +4247,7 @@
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="56"/>
       <c r="B58" s="42" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C58" s="54" t="s">
         <v>143</v>
@@ -4504,7 +4482,7 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="77" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C77" s="76" t="s">
         <v>236</v>
@@ -4515,7 +4493,7 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="77" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C78" s="76" t="s">
         <v>237</v>
@@ -4536,7 +4514,7 @@
         <v>12</v>
       </c>
       <c r="B80" s="77" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C80" s="76" t="s">
         <v>238</v>
@@ -4547,7 +4525,7 @@
     </row>
     <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="75" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C81" s="76" t="s">
         <v>239</v>
@@ -4558,7 +4536,7 @@
     </row>
     <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="77" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C82" s="76" t="s">
         <v>240</v>
@@ -4569,7 +4547,7 @@
     </row>
     <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="77" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C83" s="76" t="s">
         <v>241</v>
@@ -4619,7 +4597,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B88" s="62" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C88" s="63" t="s">
         <v>185</v>
@@ -4652,7 +4630,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B91" s="62" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C91" s="63" t="s">
         <v>189</v>
@@ -4691,7 +4669,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B95" s="62" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C95" s="63" t="s">
         <v>192</v>
@@ -4812,7 +4790,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B106" s="62" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C106" s="63" t="s">
         <v>214</v>
@@ -4844,7 +4822,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B109" s="62" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C109" s="63" t="s">
         <v>249</v>
@@ -4872,7 +4850,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B112" s="62" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C112" s="63" t="s">
         <v>245</v>
@@ -4883,7 +4861,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B113" s="62" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C113" s="63" t="s">
         <v>246</v>
@@ -4894,7 +4872,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B114" s="62" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C114" s="63" t="s">
         <v>247</v>
@@ -4905,7 +4883,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B115" s="62" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C115" s="63" t="s">
         <v>248</v>
@@ -4916,7 +4894,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B116" s="62" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C116" s="63" t="s">
         <v>250</v>
@@ -4927,7 +4905,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B117" s="62" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C117" s="63" t="s">
         <v>251</v>
@@ -4938,7 +4916,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B118" s="62" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C118" s="63" t="s">
         <v>253</v>
@@ -4949,7 +4927,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B119" s="62" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C119" s="63" t="s">
         <v>252</v>
@@ -4960,10 +4938,10 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B120" s="62" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C120" s="63" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D120" s="64"/>
       <c r="E120" s="65"/>
@@ -4971,10 +4949,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B121" s="62" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C121" s="63" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D121" s="64"/>
       <c r="E121" s="65"/>
@@ -4989,7 +4967,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="41" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B123" s="62"/>
       <c r="C123" s="63"/>
@@ -4999,10 +4977,10 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B124" s="62" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C124" s="63" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D124" s="64"/>
       <c r="E124" s="65"/>
@@ -5010,10 +4988,10 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B125" s="62" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C125" s="63" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="D125" s="64"/>
       <c r="E125" s="65"/>
@@ -5021,10 +4999,10 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B126" s="62" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C126" s="63" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D126" s="64"/>
       <c r="E126" s="65"/>
@@ -5032,10 +5010,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B127" s="62" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C127" s="63" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D127" s="64"/>
       <c r="E127" s="65"/>
@@ -5043,10 +5021,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B128" s="62" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C128" s="63" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D128" s="64"/>
       <c r="E128" s="65"/>
@@ -5054,10 +5032,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B129" s="62" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C129" s="63" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D129" s="64"/>
       <c r="E129" s="65"/>
@@ -5065,10 +5043,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B130" s="62" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C130" s="63" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D130" s="64"/>
       <c r="E130" s="65"/>
@@ -5076,10 +5054,10 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B131" s="62" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C131" s="63" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D131" s="64"/>
       <c r="E131" s="65"/>
@@ -5087,10 +5065,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B132" s="62" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C132" s="63" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D132" s="64"/>
       <c r="E132" s="65"/>
@@ -5098,10 +5076,10 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B133" s="62" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C133" s="63" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D133" s="64"/>
       <c r="E133" s="65"/>
@@ -5123,7 +5101,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="41" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B136" s="62"/>
       <c r="C136" s="63"/>
@@ -5133,10 +5111,10 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B137" s="62" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C137" s="63" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D137" s="64"/>
       <c r="E137" s="65"/>
@@ -5144,10 +5122,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B138" s="62" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="C138" s="63" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D138" s="64"/>
       <c r="E138" s="65"/>
@@ -5155,10 +5133,10 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B139" s="62" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C139" s="63" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D139" s="64"/>
       <c r="E139" s="65"/>
@@ -5166,10 +5144,10 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B140" s="62" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C140" s="63" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D140" s="64"/>
       <c r="E140" s="65"/>
@@ -5177,10 +5155,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B141" s="62" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C141" s="63" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D141" s="64"/>
       <c r="E141" s="65"/>
@@ -5188,10 +5166,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B142" s="62" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C142" s="63" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="D142" s="64"/>
       <c r="E142" s="65"/>
@@ -5206,7 +5184,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="41" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B144" s="62"/>
       <c r="C144" s="63"/>
@@ -5216,10 +5194,10 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B145" s="62" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C145" s="63" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="D145" s="64"/>
       <c r="E145" s="65"/>
@@ -5227,10 +5205,10 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B146" s="62" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C146" s="63" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D146" s="64"/>
       <c r="E146" s="65"/>
@@ -5238,10 +5216,10 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B147" s="62" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C147" s="63" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="D147" s="64"/>
       <c r="E147" s="65"/>
@@ -5249,10 +5227,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B148" s="62" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C148" s="63" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="D148" s="64"/>
       <c r="E148" s="65"/>
@@ -5260,10 +5238,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B149" s="62" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C149" s="63" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="D149" s="64"/>
       <c r="E149" s="65"/>
@@ -5271,10 +5249,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B150" s="62" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C150" s="63" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D150" s="64"/>
       <c r="E150" s="65"/>
@@ -5282,7 +5260,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B151" s="62"/>
       <c r="C151" s="63"/>
@@ -5292,10 +5270,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B152" s="62" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C152" s="63" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D152" s="64"/>
       <c r="E152" s="65"/>
@@ -5303,10 +5281,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B153" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="C153" s="63" t="s">
         <v>280</v>
-      </c>
-      <c r="C153" s="63" t="s">
-        <v>281</v>
       </c>
       <c r="D153" s="64"/>
       <c r="E153" s="65"/>
@@ -5314,10 +5292,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B154" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="C154" s="63" t="s">
         <v>282</v>
-      </c>
-      <c r="C154" s="63" t="s">
-        <v>283</v>
       </c>
       <c r="D154" s="64"/>
       <c r="E154" s="65"/>
@@ -5325,10 +5303,10 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B155" s="62" t="s">
+        <v>283</v>
+      </c>
+      <c r="C155" s="63" t="s">
         <v>284</v>
-      </c>
-      <c r="C155" s="63" t="s">
-        <v>285</v>
       </c>
       <c r="D155" s="64"/>
       <c r="E155" s="65"/>
@@ -5336,10 +5314,10 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B156" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="C156" s="63" t="s">
         <v>286</v>
-      </c>
-      <c r="C156" s="63" t="s">
-        <v>287</v>
       </c>
       <c r="D156" s="64"/>
       <c r="E156" s="65"/>
@@ -5347,10 +5325,10 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B157" s="62" t="s">
+        <v>287</v>
+      </c>
+      <c r="C157" s="63" t="s">
         <v>288</v>
-      </c>
-      <c r="C157" s="63" t="s">
-        <v>289</v>
       </c>
       <c r="D157" s="64"/>
       <c r="E157" s="65"/>
@@ -5372,7 +5350,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B160" s="62"/>
       <c r="C160" s="63"/>
@@ -5382,10 +5360,10 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B161" s="62" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C161" s="63" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D161" s="64"/>
       <c r="E161" s="65"/>
@@ -5393,10 +5371,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B162" s="62" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C162" s="63" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D162" s="64"/>
       <c r="E162" s="65"/>
@@ -5404,10 +5382,10 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B163" s="62" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C163" s="63" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="D163" s="64"/>
       <c r="E163" s="65"/>
@@ -5415,10 +5393,10 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B164" s="62" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C164" s="63" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D164" s="64"/>
       <c r="E164" s="65"/>
@@ -5426,10 +5404,10 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B165" s="62" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C165" s="63" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D165" s="64"/>
       <c r="E165" s="65"/>
@@ -5437,10 +5415,10 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B166" s="62" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C166" s="63" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D166" s="64"/>
       <c r="E166" s="65"/>
@@ -5448,10 +5426,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B167" s="62" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C167" s="63" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D167" s="64"/>
       <c r="E167" s="65"/>
@@ -5459,10 +5437,10 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B168" s="62" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C168" s="63" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D168" s="64"/>
       <c r="E168" s="65"/>
@@ -5470,10 +5448,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B169" s="62" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C169" s="63" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D169" s="64"/>
       <c r="E169" s="65"/>
@@ -5653,7 +5631,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5671,7 +5649,7 @@
       </c>
       <c r="B1" s="152"/>
       <c r="C1" s="153" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D1" s="154"/>
       <c r="E1" s="136"/>
@@ -5693,7 +5671,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="130" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -5707,7 +5685,7 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="16"/>
       <c r="C4" s="7" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="D4" s="7">
         <v>32</v>
@@ -5717,7 +5695,7 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="16"/>
       <c r="C5" s="7" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="D5" s="7">
         <v>3</v>
@@ -5727,7 +5705,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="16"/>
       <c r="C6" s="7" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
@@ -5737,10 +5715,10 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="16"/>
       <c r="C7" s="7" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="E7" s="17"/>
     </row>
@@ -5795,7 +5773,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5814,7 +5792,7 @@
       </c>
       <c r="B1" s="156"/>
       <c r="C1" s="153" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D1" s="154"/>
       <c r="E1" s="154"/>
@@ -5841,20 +5819,20 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -5862,10 +5840,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -5873,10 +5851,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -5884,10 +5862,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -5895,10 +5873,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -5906,10 +5884,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -5917,10 +5895,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -5928,10 +5906,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -5939,10 +5917,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -5950,10 +5928,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -5961,10 +5939,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -5972,10 +5950,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -5983,10 +5961,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="C16" s="92" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -5994,10 +5972,10 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C17" s="92" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -6005,10 +5983,10 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C18" s="92" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -6016,10 +5994,10 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="C19" s="92" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -6027,10 +6005,10 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="C20" s="92" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -6038,10 +6016,10 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C21" s="92" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -6172,7 +6150,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6195,7 +6173,7 @@
       </c>
       <c r="B1" s="132"/>
       <c r="C1" s="153" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D1" s="154"/>
       <c r="E1" s="154"/>
@@ -6206,42 +6184,42 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="142" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B2" s="143" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C2" s="143" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D2" s="143" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="E2" s="143" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="F2" s="141" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="G2" s="143" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H2" s="143" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="I2" s="141" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="J2" s="141" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="E3" s="109"/>
       <c r="F3" s="109"/>
@@ -6254,10 +6232,10 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4"/>
       <c r="C4" s="9" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -6270,10 +6248,10 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5"/>
       <c r="C5" s="11" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -6286,10 +6264,10 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6"/>
       <c r="C6" s="11" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -6302,10 +6280,10 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7"/>
       <c r="C7" s="11" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -6318,10 +6296,10 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8"/>
       <c r="C8" s="11" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -6334,10 +6312,10 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9"/>
       <c r="C9" s="11" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -6350,10 +6328,10 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10"/>
       <c r="C10" s="11" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -6366,10 +6344,10 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11"/>
       <c r="C11" s="11" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -6382,10 +6360,10 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12"/>
       <c r="C12" s="11" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -6398,10 +6376,10 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13"/>
       <c r="C13" s="11" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -6414,10 +6392,10 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14"/>
       <c r="C14" s="11" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -6430,10 +6408,10 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15"/>
       <c r="C15" s="11" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -6446,10 +6424,10 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16"/>
       <c r="C16" s="11" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -7251,38 +7229,38 @@
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="157" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B1" s="158"/>
       <c r="C1" s="139"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -7343,7 +7321,7 @@
       <c r="B1" s="159"/>
       <c r="C1" s="152"/>
       <c r="D1" s="149" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="E1" s="150"/>
       <c r="F1" s="150"/>
@@ -7357,34 +7335,34 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="133" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C3" s="133" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D3" s="133" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E3" s="133" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="F3" s="133" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G3" s="133" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="H3" s="133" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="I3" s="133" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="J3" s="133" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="K3" s="133" t="s">
         <v>17</v>
@@ -7392,12 +7370,12 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="D5">
         <v>32</v>
@@ -7405,7 +7383,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="F6" t="s">
         <v>103</v>
@@ -7417,12 +7395,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="D7">
         <v>32</v>
@@ -7430,7 +7408,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="F8" t="s">
         <v>103</v>
@@ -7442,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -7479,11 +7457,11 @@
   <sheetData>
     <row r="1" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="151" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B1" s="152"/>
       <c r="C1" s="149" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D1" s="150"/>
       <c r="E1" s="150"/>
@@ -7492,7 +7470,7 @@
     </row>
     <row r="2" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="133" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C2" s="133" t="s">
         <v>193</v>
@@ -7525,11 +7503,11 @@
         <v>209</v>
       </c>
       <c r="M2" s="134" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="163"/>
+      <c r="B3" s="164"/>
       <c r="C3" s="110"/>
       <c r="D3" s="111"/>
       <c r="E3" s="112"/>
@@ -7543,8 +7521,8 @@
       <c r="M3" s="116"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
       <c r="D4" s="165"/>
       <c r="E4" s="166"/>
       <c r="F4" s="113"/>
@@ -7557,8 +7535,8 @@
       <c r="M4" s="116"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
       <c r="D5" s="165"/>
       <c r="E5" s="166"/>
       <c r="F5" s="113"/>
@@ -7571,8 +7549,8 @@
       <c r="M5" s="116"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="163"/>
-      <c r="C6" s="163"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
       <c r="D6" s="165"/>
       <c r="E6" s="166"/>
       <c r="F6" s="113"/>
@@ -7585,8 +7563,8 @@
       <c r="M6" s="116"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="163"/>
-      <c r="C7" s="163"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
       <c r="D7" s="165"/>
       <c r="E7" s="166"/>
       <c r="F7" s="113"/>
@@ -7599,8 +7577,8 @@
       <c r="M7" s="116"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
       <c r="D8" s="165"/>
       <c r="E8" s="166"/>
       <c r="F8" s="113"/>
@@ -7613,7 +7591,7 @@
       <c r="M8" s="122"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="163"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="90"/>
       <c r="D9" s="111"/>
       <c r="E9" s="112"/>
@@ -7627,7 +7605,7 @@
       <c r="M9" s="122"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="163"/>
+      <c r="B10" s="164"/>
       <c r="C10" s="110"/>
       <c r="D10" s="111"/>
       <c r="E10" s="112"/>
@@ -7641,7 +7619,7 @@
       <c r="M10" s="111"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="163"/>
+      <c r="B11" s="164"/>
       <c r="C11" s="124"/>
       <c r="D11" s="116"/>
       <c r="E11" s="125"/>
@@ -7655,8 +7633,8 @@
       <c r="M11" s="116"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="164"/>
-      <c r="C12" s="163"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="164"/>
       <c r="D12" s="165"/>
       <c r="E12" s="112"/>
       <c r="F12" s="113"/>
@@ -7669,8 +7647,8 @@
       <c r="M12" s="122"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="164"/>
-      <c r="C13" s="163"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="164"/>
       <c r="D13" s="165"/>
       <c r="E13" s="112"/>
       <c r="F13" s="113"/>
@@ -7683,8 +7661,8 @@
       <c r="M13" s="122"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="164"/>
-      <c r="C14" s="163"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="164"/>
       <c r="D14" s="165"/>
       <c r="E14" s="112"/>
       <c r="F14" s="113"/>
@@ -7697,8 +7675,8 @@
       <c r="M14" s="122"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="164"/>
-      <c r="C15" s="163"/>
+      <c r="B15" s="163"/>
+      <c r="C15" s="164"/>
       <c r="D15" s="165"/>
       <c r="E15" s="112"/>
       <c r="F15" s="113"/>
@@ -7711,8 +7689,8 @@
       <c r="M15" s="122"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="164"/>
-      <c r="C16" s="163"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="164"/>
       <c r="D16" s="165"/>
       <c r="E16" s="112"/>
       <c r="F16" s="113"/>
@@ -7725,8 +7703,8 @@
       <c r="M16" s="122"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="164"/>
-      <c r="C17" s="163"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="164"/>
       <c r="D17" s="165"/>
       <c r="E17" s="112"/>
       <c r="F17" s="113"/>
@@ -7739,8 +7717,8 @@
       <c r="M17" s="122"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="164"/>
-      <c r="C18" s="163"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="164"/>
       <c r="D18" s="165"/>
       <c r="E18" s="112"/>
       <c r="F18" s="113"/>
@@ -7753,8 +7731,8 @@
       <c r="M18" s="122"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="164"/>
-      <c r="C19" s="163"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="164"/>
       <c r="D19" s="165"/>
       <c r="E19" s="112"/>
       <c r="F19" s="113"/>
@@ -7810,12 +7788,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B15"/>
@@ -7826,6 +7798,12 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7848,12 +7826,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="155" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B1" s="167"/>
       <c r="C1" s="156"/>
       <c r="D1" s="149" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="E1" s="150"/>
       <c r="F1" s="150"/>
@@ -7863,22 +7841,22 @@
     </row>
     <row r="3" spans="1:12" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A3" s="127" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="81" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C5" s="81" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D5" s="81" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E5" s="135" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7889,15 +7867,15 @@
     </row>
     <row r="8" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="127" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="81" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C9" s="170" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D9" s="171"/>
       <c r="E9" s="171"/>
@@ -8054,7 +8032,7 @@
     </row>
     <row r="22" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="127" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8062,16 +8040,16 @@
         <v>205</v>
       </c>
       <c r="C23" s="81" t="s">
+        <v>270</v>
+      </c>
+      <c r="D23" s="81" t="s">
         <v>271</v>
       </c>
-      <c r="D23" s="81" t="s">
+      <c r="E23" s="81" t="s">
         <v>272</v>
       </c>
-      <c r="E23" s="81" t="s">
-        <v>273</v>
-      </c>
       <c r="F23" s="81" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="G23" s="81" t="s">
         <v>17</v>
@@ -8134,9 +8112,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8156,74 +8134,52 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B2" s="82" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C2" s="82" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D2" s="83" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
-        <v>292</v>
-      </c>
+      <c r="A3" s="80"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="D4" s="107" t="s">
-        <v>297</v>
-      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="107"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
-      <c r="B5" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>294</v>
-      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
-        <v>293</v>
-      </c>
+      <c r="A6" s="80"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>296</v>
-      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>295</v>
-      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">

--- a/my1stProject/block1/block1.xlsx
+++ b/my1stProject/block1/block1.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirti\Documents\soc_repository\my1stProject\block1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16275" windowHeight="6270" tabRatio="820" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16275" windowHeight="6270" tabRatio="820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="9" r:id="rId1"/>
@@ -20,7 +25,6 @@
     <sheet name="ids_template" sheetId="22" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -164,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="448">
   <si>
     <t>Component Name</t>
   </si>
@@ -1602,15 +1606,6 @@
     <t>soce,example,1,amba_widget.v</t>
   </si>
   <si>
-    <t>hwdata[$bus_width-1:0]</t>
-  </si>
-  <si>
-    <t>haddr[$addr_width-1:0]</t>
-  </si>
-  <si>
-    <t>hrdata[$bus_width-1:0]</t>
-  </si>
-  <si>
     <t>Reg11_F_in[31:0]</t>
   </si>
   <si>
@@ -1623,10 +1618,10 @@
     <t>hrdata[31:0]</t>
   </si>
   <si>
-    <t>haddr[31:0]</t>
-  </si>
-  <si>
     <t>hwdata[31:0]</t>
+  </si>
+  <si>
+    <t>haddr[2:0]</t>
   </si>
 </sst>
 </file>
@@ -2789,10 +2784,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5773,7 +5768,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:C15"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5840,7 +5835,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>423</v>
@@ -5873,7 +5868,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>421</v>
@@ -5917,7 +5912,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>421</v>
@@ -5972,7 +5967,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C17" s="92" t="s">
         <v>423</v>
@@ -5983,7 +5978,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C18" s="92" t="s">
         <v>421</v>
@@ -6016,7 +6011,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C21" s="92" t="s">
         <v>421</v>
@@ -6148,9 +6143,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6264,10 +6259,10 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6"/>
       <c r="C6" s="11" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -6312,10 +6307,10 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9"/>
       <c r="C9" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -6376,10 +6371,10 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13"/>
       <c r="C13" s="11" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -7507,7 +7502,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="164"/>
+      <c r="B3" s="163"/>
       <c r="C3" s="110"/>
       <c r="D3" s="111"/>
       <c r="E3" s="112"/>
@@ -7521,8 +7516,8 @@
       <c r="M3" s="116"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="164"/>
-      <c r="C4" s="164"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
       <c r="D4" s="165"/>
       <c r="E4" s="166"/>
       <c r="F4" s="113"/>
@@ -7535,8 +7530,8 @@
       <c r="M4" s="116"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="164"/>
-      <c r="C5" s="164"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
       <c r="D5" s="165"/>
       <c r="E5" s="166"/>
       <c r="F5" s="113"/>
@@ -7549,8 +7544,8 @@
       <c r="M5" s="116"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="164"/>
-      <c r="C6" s="164"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
       <c r="D6" s="165"/>
       <c r="E6" s="166"/>
       <c r="F6" s="113"/>
@@ -7563,8 +7558,8 @@
       <c r="M6" s="116"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="164"/>
-      <c r="C7" s="164"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="163"/>
       <c r="D7" s="165"/>
       <c r="E7" s="166"/>
       <c r="F7" s="113"/>
@@ -7577,8 +7572,8 @@
       <c r="M7" s="116"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="164"/>
-      <c r="C8" s="164"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="163"/>
       <c r="D8" s="165"/>
       <c r="E8" s="166"/>
       <c r="F8" s="113"/>
@@ -7591,7 +7586,7 @@
       <c r="M8" s="122"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="164"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="90"/>
       <c r="D9" s="111"/>
       <c r="E9" s="112"/>
@@ -7605,7 +7600,7 @@
       <c r="M9" s="122"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="164"/>
+      <c r="B10" s="163"/>
       <c r="C10" s="110"/>
       <c r="D10" s="111"/>
       <c r="E10" s="112"/>
@@ -7619,7 +7614,7 @@
       <c r="M10" s="111"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="164"/>
+      <c r="B11" s="163"/>
       <c r="C11" s="124"/>
       <c r="D11" s="116"/>
       <c r="E11" s="125"/>
@@ -7633,8 +7628,8 @@
       <c r="M11" s="116"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="163"/>
-      <c r="C12" s="164"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="163"/>
       <c r="D12" s="165"/>
       <c r="E12" s="112"/>
       <c r="F12" s="113"/>
@@ -7647,8 +7642,8 @@
       <c r="M12" s="122"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="163"/>
-      <c r="C13" s="164"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="163"/>
       <c r="D13" s="165"/>
       <c r="E13" s="112"/>
       <c r="F13" s="113"/>
@@ -7661,8 +7656,8 @@
       <c r="M13" s="122"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="163"/>
-      <c r="C14" s="164"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="163"/>
       <c r="D14" s="165"/>
       <c r="E14" s="112"/>
       <c r="F14" s="113"/>
@@ -7675,8 +7670,8 @@
       <c r="M14" s="122"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="163"/>
-      <c r="C15" s="164"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="163"/>
       <c r="D15" s="165"/>
       <c r="E15" s="112"/>
       <c r="F15" s="113"/>
@@ -7689,8 +7684,8 @@
       <c r="M15" s="122"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="163"/>
-      <c r="C16" s="164"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="163"/>
       <c r="D16" s="165"/>
       <c r="E16" s="112"/>
       <c r="F16" s="113"/>
@@ -7703,8 +7698,8 @@
       <c r="M16" s="122"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="163"/>
-      <c r="C17" s="164"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="163"/>
       <c r="D17" s="165"/>
       <c r="E17" s="112"/>
       <c r="F17" s="113"/>
@@ -7717,8 +7712,8 @@
       <c r="M17" s="122"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="163"/>
-      <c r="C18" s="164"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="163"/>
       <c r="D18" s="165"/>
       <c r="E18" s="112"/>
       <c r="F18" s="113"/>
@@ -7731,8 +7726,8 @@
       <c r="M18" s="122"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="163"/>
-      <c r="C19" s="164"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="163"/>
       <c r="D19" s="165"/>
       <c r="E19" s="112"/>
       <c r="F19" s="113"/>
@@ -7788,6 +7783,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B15"/>
@@ -7798,12 +7799,6 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8112,7 +8107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>

--- a/my1stProject/block1/block1.xlsx
+++ b/my1stProject/block1/block1.xlsx
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="448">
   <si>
     <t>Component Name</t>
   </si>

--- a/my1stProject/block1/block1.xlsx
+++ b/my1stProject/block1/block1.xlsx
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="456">
   <si>
     <t>Component Name</t>
   </si>
@@ -1429,9 +1429,6 @@
     <t>Sheet name</t>
   </si>
   <si>
-    <t>AMS_Discipline</t>
-  </si>
-  <si>
     <t>BusInterfaceRef</t>
   </si>
   <si>
@@ -1516,9 +1513,6 @@
     <t>addressSpaceDescription</t>
   </si>
   <si>
-    <t>Spec_Type</t>
-  </si>
-  <si>
     <t>Block1</t>
   </si>
   <si>
@@ -1597,15 +1591,9 @@
     <t>Block1_address_width</t>
   </si>
   <si>
-    <t>$addr_width</t>
-  </si>
-  <si>
     <t>amba_widget</t>
   </si>
   <si>
-    <t>soce,example,1,amba_widget.v</t>
-  </si>
-  <si>
     <t>Reg11_F_in[31:0]</t>
   </si>
   <si>
@@ -1615,13 +1603,49 @@
     <t>Reg12_F_r[31:0]</t>
   </si>
   <si>
-    <t>hrdata[31:0]</t>
-  </si>
-  <si>
-    <t>hwdata[31:0]</t>
-  </si>
-  <si>
-    <t>haddr[2:0]</t>
+    <t>hrdata[$bus_width -1:0]</t>
+  </si>
+  <si>
+    <t>hwdata[$bus_width -1:0]</t>
+  </si>
+  <si>
+    <t>haddr[$addr_width -1:0]</t>
+  </si>
+  <si>
+    <t>spec_type</t>
+  </si>
+  <si>
+    <t>ams_discipline</t>
+  </si>
+  <si>
+    <t>{connectionRequired=true}</t>
+  </si>
+  <si>
+    <t>soce,example,amba_widget,1</t>
+  </si>
+  <si>
+    <t>hrdata</t>
+  </si>
+  <si>
+    <t>haddr</t>
+  </si>
+  <si>
+    <t>hwdata</t>
+  </si>
+  <si>
+    <t>htrans</t>
+  </si>
+  <si>
+    <t>hresp</t>
+  </si>
+  <si>
+    <t>hsize</t>
+  </si>
+  <si>
+    <t>hprot</t>
+  </si>
+  <si>
+    <t>hbrust</t>
   </si>
 </sst>
 </file>
@@ -3181,7 +3205,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -3192,7 +3216,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="94" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -3203,7 +3227,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="94" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -3439,7 +3463,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3486,7 +3510,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="108" t="str">
         <f>ids_template!B88</f>
-        <v>Spec_Type</v>
+        <v>spec_type</v>
       </c>
       <c r="C3" s="109"/>
       <c r="D3" s="109"/>
@@ -3505,7 +3529,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="str">
         <f>ids_template!B91</f>
-        <v>AMS_Discipline</v>
+        <v>ams_discipline</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -3534,8 +3558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F191"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4592,7 +4616,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B88" s="62" t="s">
-        <v>412</v>
+        <v>444</v>
       </c>
       <c r="C88" s="63" t="s">
         <v>185</v>
@@ -4625,7 +4649,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B91" s="62" t="s">
-        <v>383</v>
+        <v>445</v>
       </c>
       <c r="C91" s="63" t="s">
         <v>189</v>
@@ -4817,7 +4841,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B109" s="62" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C109" s="63" t="s">
         <v>249</v>
@@ -4900,7 +4924,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B117" s="62" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C117" s="63" t="s">
         <v>251</v>
@@ -4936,7 +4960,7 @@
         <v>356</v>
       </c>
       <c r="C120" s="63" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D120" s="64"/>
       <c r="E120" s="65"/>
@@ -4947,7 +4971,7 @@
         <v>355</v>
       </c>
       <c r="C121" s="63" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D121" s="64"/>
       <c r="E121" s="65"/>
@@ -5016,7 +5040,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B128" s="62" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C128" s="63" t="s">
         <v>319</v>
@@ -5060,7 +5084,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B132" s="62" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C132" s="63" t="s">
         <v>326</v>
@@ -5071,7 +5095,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B133" s="62" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C133" s="63" t="s">
         <v>327</v>
@@ -5117,7 +5141,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B138" s="62" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C138" s="63" t="s">
         <v>331</v>
@@ -5139,7 +5163,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B140" s="62" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C140" s="63" t="s">
         <v>334</v>
@@ -5150,7 +5174,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B141" s="62" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C141" s="63" t="s">
         <v>335</v>
@@ -5161,7 +5185,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B142" s="62" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C142" s="63" t="s">
         <v>336</v>
@@ -5189,7 +5213,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B145" s="62" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C145" s="63" t="s">
         <v>338</v>
@@ -5200,7 +5224,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B146" s="62" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C146" s="63" t="s">
         <v>339</v>
@@ -5222,7 +5246,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B148" s="62" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C148" s="63" t="s">
         <v>342</v>
@@ -5233,7 +5257,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B149" s="62" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C149" s="63" t="s">
         <v>343</v>
@@ -5244,7 +5268,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B150" s="62" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C150" s="63" t="s">
         <v>344</v>
@@ -5265,7 +5289,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B152" s="62" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C152" s="63" t="s">
         <v>278</v>
@@ -5358,7 +5382,7 @@
         <v>358</v>
       </c>
       <c r="C161" s="63" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D161" s="64"/>
       <c r="E161" s="65"/>
@@ -5366,10 +5390,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B162" s="62" t="s">
+        <v>401</v>
+      </c>
+      <c r="C162" s="63" t="s">
         <v>402</v>
-      </c>
-      <c r="C162" s="63" t="s">
-        <v>403</v>
       </c>
       <c r="D162" s="64"/>
       <c r="E162" s="65"/>
@@ -5380,7 +5404,7 @@
         <v>360</v>
       </c>
       <c r="C163" s="63" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D163" s="64"/>
       <c r="E163" s="65"/>
@@ -5391,7 +5415,7 @@
         <v>361</v>
       </c>
       <c r="C164" s="63" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D164" s="64"/>
       <c r="E164" s="65"/>
@@ -5402,7 +5426,7 @@
         <v>362</v>
       </c>
       <c r="C165" s="63" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D165" s="64"/>
       <c r="E165" s="65"/>
@@ -5413,7 +5437,7 @@
         <v>363</v>
       </c>
       <c r="C166" s="63" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D166" s="64"/>
       <c r="E166" s="65"/>
@@ -5424,7 +5448,7 @@
         <v>364</v>
       </c>
       <c r="C167" s="63" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D167" s="64"/>
       <c r="E167" s="65"/>
@@ -5435,7 +5459,7 @@
         <v>354</v>
       </c>
       <c r="C168" s="63" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D168" s="64"/>
       <c r="E168" s="65"/>
@@ -5443,10 +5467,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B169" s="62" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C169" s="63" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D169" s="64"/>
       <c r="E169" s="65"/>
@@ -5626,7 +5650,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5680,7 +5704,7 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="16"/>
       <c r="C4" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D4" s="7">
         <v>32</v>
@@ -5690,7 +5714,7 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="16"/>
       <c r="C5" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D5" s="7">
         <v>3</v>
@@ -5700,7 +5724,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="16"/>
       <c r="C6" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
@@ -5710,10 +5734,10 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="16"/>
       <c r="C7" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3</v>
       </c>
       <c r="E7" s="17"/>
     </row>
@@ -5768,7 +5792,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5802,11 +5826,11 @@
       </c>
       <c r="D2" s="15" t="str">
         <f>ids_template!B88</f>
-        <v>Spec_Type</v>
+        <v>spec_type</v>
       </c>
       <c r="E2" s="15" t="str">
         <f>ids_template!B91</f>
-        <v>AMS_Discipline</v>
+        <v>ams_discipline</v>
       </c>
       <c r="F2" s="130" t="s">
         <v>11</v>
@@ -5814,20 +5838,20 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -5835,10 +5859,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -5846,10 +5870,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -5857,10 +5881,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -5868,10 +5892,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -5879,10 +5903,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -5890,10 +5914,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -5901,10 +5925,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -5912,10 +5936,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -5923,10 +5947,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -5934,10 +5958,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -5945,10 +5969,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -5956,10 +5980,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C16" s="92" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -5967,10 +5991,10 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C17" s="92" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -5978,10 +6002,10 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C18" s="92" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -5989,10 +6013,10 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C19" s="92" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -6000,10 +6024,10 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C20" s="92" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -6011,10 +6035,10 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C21" s="92" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -6145,7 +6169,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6211,12 +6235,14 @@
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="E3" s="109"/>
+        <v>447</v>
+      </c>
+      <c r="E3" s="109" t="s">
+        <v>446</v>
+      </c>
       <c r="F3" s="109"/>
       <c r="G3" s="109"/>
       <c r="H3" s="109"/>
@@ -6227,10 +6253,10 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4"/>
       <c r="C4" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -6243,10 +6269,10 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5"/>
       <c r="C5" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -6259,10 +6285,10 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6"/>
       <c r="C6" s="11" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -6275,10 +6301,10 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7"/>
       <c r="C7" s="11" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -6291,10 +6317,10 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8"/>
       <c r="C8" s="11" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -6307,10 +6333,10 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9"/>
       <c r="C9" s="11" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -6323,10 +6349,10 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10"/>
       <c r="C10" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -6339,10 +6365,10 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11"/>
       <c r="C11" s="11" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -6355,10 +6381,10 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12"/>
       <c r="C12" s="11" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -6371,10 +6397,10 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13"/>
       <c r="C13" s="11" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -6387,10 +6413,10 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14"/>
       <c r="C14" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -6403,10 +6429,10 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15"/>
       <c r="C15" s="11" t="s">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -6419,10 +6445,10 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16"/>
       <c r="C16" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -7255,7 +7281,7 @@
         <v>354</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -7365,12 +7391,12 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D5">
         <v>32</v>
@@ -7378,7 +7404,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F6" t="s">
         <v>103</v>
@@ -7390,12 +7416,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D7">
         <v>32</v>
@@ -7403,7 +7429,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F8" t="s">
         <v>103</v>
@@ -7415,7 +7441,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>

--- a/my1stProject/block1/block1.xlsx
+++ b/my1stProject/block1/block1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16275" windowHeight="6270" tabRatio="820" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16275" windowHeight="6270" tabRatio="820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="9" r:id="rId1"/>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="456">
   <si>
     <t>Component Name</t>
   </si>
@@ -1564,9 +1564,6 @@
     <t>hsel</t>
   </si>
   <si>
-    <t>hbrust[2:0]</t>
-  </si>
-  <si>
     <t>hready</t>
   </si>
   <si>
@@ -1645,7 +1642,10 @@
     <t>hprot</t>
   </si>
   <si>
-    <t>hbrust</t>
+    <t>hburst</t>
+  </si>
+  <si>
+    <t>hburst[2:0]</t>
   </si>
 </sst>
 </file>
@@ -2808,10 +2808,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B88" s="62" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C88" s="63" t="s">
         <v>185</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B91" s="62" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C91" s="63" t="s">
         <v>189</v>
@@ -5704,7 +5704,7 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="16"/>
       <c r="C4" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D4" s="7">
         <v>32</v>
@@ -5714,7 +5714,7 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="16"/>
       <c r="C5" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D5" s="7">
         <v>3</v>
@@ -5724,7 +5724,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="16"/>
       <c r="C6" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
@@ -5734,7 +5734,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="16"/>
       <c r="C7" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D7" s="7">
         <v>3</v>
@@ -5790,9 +5790,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5859,7 +5859,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>421</v>
@@ -5892,7 +5892,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>419</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>419</v>
@@ -5958,7 +5958,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>419</v>
@@ -5969,7 +5969,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>421</v>
@@ -5980,7 +5980,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C16" s="92" t="s">
         <v>421</v>
@@ -5991,7 +5991,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C17" s="92" t="s">
         <v>421</v>
@@ -6002,7 +6002,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C18" s="92" t="s">
         <v>419</v>
@@ -6013,7 +6013,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C19" s="92" t="s">
         <v>419</v>
@@ -6024,7 +6024,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C20" s="92" t="s">
         <v>421</v>
@@ -6035,7 +6035,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C21" s="92" t="s">
         <v>419</v>
@@ -6167,9 +6167,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6235,13 +6235,13 @@
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E3" s="109" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F3" s="109"/>
       <c r="G3" s="109"/>
@@ -6285,10 +6285,10 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6"/>
       <c r="C6" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -6301,7 +6301,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7"/>
       <c r="C7" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>422</v>
@@ -6317,7 +6317,7 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8"/>
       <c r="C8" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>423</v>
@@ -6333,10 +6333,10 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9"/>
       <c r="C9" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -6365,7 +6365,7 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11"/>
       <c r="C11" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>425</v>
@@ -6381,7 +6381,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12"/>
       <c r="C12" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>426</v>
@@ -6397,10 +6397,10 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13"/>
       <c r="C13" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -6429,10 +6429,10 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15"/>
       <c r="C15" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>455</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>428</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -6445,10 +6445,10 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16"/>
       <c r="C16" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -7528,7 +7528,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="163"/>
+      <c r="B3" s="164"/>
       <c r="C3" s="110"/>
       <c r="D3" s="111"/>
       <c r="E3" s="112"/>
@@ -7542,8 +7542,8 @@
       <c r="M3" s="116"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
       <c r="D4" s="165"/>
       <c r="E4" s="166"/>
       <c r="F4" s="113"/>
@@ -7556,8 +7556,8 @@
       <c r="M4" s="116"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
       <c r="D5" s="165"/>
       <c r="E5" s="166"/>
       <c r="F5" s="113"/>
@@ -7570,8 +7570,8 @@
       <c r="M5" s="116"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="163"/>
-      <c r="C6" s="163"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
       <c r="D6" s="165"/>
       <c r="E6" s="166"/>
       <c r="F6" s="113"/>
@@ -7584,8 +7584,8 @@
       <c r="M6" s="116"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="163"/>
-      <c r="C7" s="163"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
       <c r="D7" s="165"/>
       <c r="E7" s="166"/>
       <c r="F7" s="113"/>
@@ -7598,8 +7598,8 @@
       <c r="M7" s="116"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
       <c r="D8" s="165"/>
       <c r="E8" s="166"/>
       <c r="F8" s="113"/>
@@ -7612,7 +7612,7 @@
       <c r="M8" s="122"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="163"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="90"/>
       <c r="D9" s="111"/>
       <c r="E9" s="112"/>
@@ -7626,7 +7626,7 @@
       <c r="M9" s="122"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="163"/>
+      <c r="B10" s="164"/>
       <c r="C10" s="110"/>
       <c r="D10" s="111"/>
       <c r="E10" s="112"/>
@@ -7640,7 +7640,7 @@
       <c r="M10" s="111"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="163"/>
+      <c r="B11" s="164"/>
       <c r="C11" s="124"/>
       <c r="D11" s="116"/>
       <c r="E11" s="125"/>
@@ -7654,8 +7654,8 @@
       <c r="M11" s="116"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="164"/>
-      <c r="C12" s="163"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="164"/>
       <c r="D12" s="165"/>
       <c r="E12" s="112"/>
       <c r="F12" s="113"/>
@@ -7668,8 +7668,8 @@
       <c r="M12" s="122"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="164"/>
-      <c r="C13" s="163"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="164"/>
       <c r="D13" s="165"/>
       <c r="E13" s="112"/>
       <c r="F13" s="113"/>
@@ -7682,8 +7682,8 @@
       <c r="M13" s="122"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="164"/>
-      <c r="C14" s="163"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="164"/>
       <c r="D14" s="165"/>
       <c r="E14" s="112"/>
       <c r="F14" s="113"/>
@@ -7696,8 +7696,8 @@
       <c r="M14" s="122"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="164"/>
-      <c r="C15" s="163"/>
+      <c r="B15" s="163"/>
+      <c r="C15" s="164"/>
       <c r="D15" s="165"/>
       <c r="E15" s="112"/>
       <c r="F15" s="113"/>
@@ -7710,8 +7710,8 @@
       <c r="M15" s="122"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="164"/>
-      <c r="C16" s="163"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="164"/>
       <c r="D16" s="165"/>
       <c r="E16" s="112"/>
       <c r="F16" s="113"/>
@@ -7724,8 +7724,8 @@
       <c r="M16" s="122"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="164"/>
-      <c r="C17" s="163"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="164"/>
       <c r="D17" s="165"/>
       <c r="E17" s="112"/>
       <c r="F17" s="113"/>
@@ -7738,8 +7738,8 @@
       <c r="M17" s="122"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="164"/>
-      <c r="C18" s="163"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="164"/>
       <c r="D18" s="165"/>
       <c r="E18" s="112"/>
       <c r="F18" s="113"/>
@@ -7752,8 +7752,8 @@
       <c r="M18" s="122"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="164"/>
-      <c r="C19" s="163"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="164"/>
       <c r="D19" s="165"/>
       <c r="E19" s="112"/>
       <c r="F19" s="113"/>
@@ -7809,12 +7809,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B15"/>
@@ -7825,6 +7819,12 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/my1stProject/block1/block1.xlsx
+++ b/my1stProject/block1/block1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirti\Documents\soc_repository\my1stProject\block1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anupam\Documents\SoCgit\hello-world\my1stProject\block1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16275" windowHeight="6270" tabRatio="820" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16275" windowHeight="6270" tabRatio="820" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="9" r:id="rId1"/>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="455">
   <si>
     <t>Component Name</t>
   </si>
@@ -1327,9 +1327,6 @@
     <t>This sheet describe all the parameters needed for this component</t>
   </si>
   <si>
-    <t>chip</t>
-  </si>
-  <si>
     <t>width</t>
   </si>
   <si>
@@ -1367,24 +1364,6 @@
   </si>
   <si>
     <t>Register</t>
-  </si>
-  <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>Sw access</t>
-  </si>
-  <si>
-    <t>Hw access</t>
-  </si>
-  <si>
-    <t>Field default</t>
-  </si>
-  <si>
-    <t>Bits</t>
-  </si>
-  <si>
-    <t>Offset</t>
   </si>
   <si>
     <t>Chip</t>
@@ -1408,244 +1387,262 @@
     </r>
   </si>
   <si>
+    <t>Sheet name</t>
+  </si>
+  <si>
+    <t>BusInterfaceRef</t>
+  </si>
+  <si>
+    <t>BaseAddresses_or_range</t>
+  </si>
+  <si>
+    <t>$bus_interface_type</t>
+  </si>
+  <si>
+    <t>$remapdesc</t>
+  </si>
+  <si>
+    <t>Comp Name</t>
+  </si>
+  <si>
+    <t>Instance Description</t>
+  </si>
+  <si>
+    <t>Instance Ref</t>
+  </si>
+  <si>
+    <t>I_Bus</t>
+  </si>
+  <si>
+    <t>BusProperties</t>
+  </si>
+  <si>
+    <t>Bus connection  Desc</t>
+  </si>
+  <si>
+    <t>T_Bus</t>
+  </si>
+  <si>
+    <t>Sinitiator</t>
+  </si>
+  <si>
+    <t>I_Signal</t>
+  </si>
+  <si>
+    <t>SignalProperties</t>
+  </si>
+  <si>
+    <t>T_Signal</t>
+  </si>
+  <si>
+    <t>Signal connections Desc</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>$address_space</t>
+  </si>
+  <si>
+    <t>localMemorymap</t>
+  </si>
+  <si>
+    <t>$local_memorymap</t>
+  </si>
+  <si>
+    <t>$address_block</t>
+  </si>
+  <si>
+    <t>$address_offset</t>
+  </si>
+  <si>
+    <t>$base_address</t>
+  </si>
+  <si>
+    <t>$address_unit</t>
+  </si>
+  <si>
+    <t>$range</t>
+  </si>
+  <si>
+    <t>$width</t>
+  </si>
+  <si>
+    <t>$address_description</t>
+  </si>
+  <si>
+    <t>addressSpaceDescription</t>
+  </si>
+  <si>
+    <t>Block1</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>soce</t>
+  </si>
+  <si>
+    <t>Reg11</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>[31:0]</t>
+  </si>
+  <si>
+    <t>Reg12</t>
+  </si>
+  <si>
+    <t>hresetn</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>hclk</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>hresp[1:0]</t>
+  </si>
+  <si>
+    <t>htrans[1:0]</t>
+  </si>
+  <si>
+    <t>hwrite</t>
+  </si>
+  <si>
+    <t>hsize[2:0]</t>
+  </si>
+  <si>
+    <t>hprot[3:0]</t>
+  </si>
+  <si>
+    <t>hsel</t>
+  </si>
+  <si>
+    <t>hready</t>
+  </si>
+  <si>
+    <t>Reg11_enb</t>
+  </si>
+  <si>
+    <t>Reg11_F_in_enb</t>
+  </si>
+  <si>
+    <t>Reg12_enb</t>
+  </si>
+  <si>
+    <t>bus_width</t>
+  </si>
+  <si>
+    <t>addr_width</t>
+  </si>
+  <si>
+    <t>block_offset</t>
+  </si>
+  <si>
+    <t>Block1_address_width</t>
+  </si>
+  <si>
+    <t>amba_widget</t>
+  </si>
+  <si>
+    <t>Reg11_F_in[31:0]</t>
+  </si>
+  <si>
+    <t>Reg11_F_r[31:0]</t>
+  </si>
+  <si>
+    <t>Reg12_F_r[31:0]</t>
+  </si>
+  <si>
+    <t>hrdata[$bus_width -1:0]</t>
+  </si>
+  <si>
+    <t>hwdata[$bus_width -1:0]</t>
+  </si>
+  <si>
+    <t>haddr[$addr_width -1:0]</t>
+  </si>
+  <si>
+    <t>spec_type</t>
+  </si>
+  <si>
+    <t>ams_discipline</t>
+  </si>
+  <si>
+    <t>{connectionRequired=true}</t>
+  </si>
+  <si>
+    <t>soce,example,amba_widget,1</t>
+  </si>
+  <si>
+    <t>hrdata</t>
+  </si>
+  <si>
+    <t>haddr</t>
+  </si>
+  <si>
+    <t>hwdata</t>
+  </si>
+  <si>
+    <t>htrans</t>
+  </si>
+  <si>
+    <t>hresp</t>
+  </si>
+  <si>
+    <t>hsize</t>
+  </si>
+  <si>
+    <t>hprot</t>
+  </si>
+  <si>
+    <t>hburst</t>
+  </si>
+  <si>
+    <t>hburst[2:0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bits </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sw access </t>
+  </si>
+  <si>
+    <t xml:space="preserve">field default  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hw access </t>
+  </si>
+  <si>
+    <t xml:space="preserve">field description  </t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>sw access</t>
+  </si>
+  <si>
+    <t>hw access</t>
+  </si>
+  <si>
+    <t>field default</t>
+  </si>
+  <si>
+    <t>bits</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
     <t xml:space="preserve">Field  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bits </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sw access </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field default  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hw access </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field description  </t>
-  </si>
-  <si>
-    <t>Sheet name</t>
-  </si>
-  <si>
-    <t>BusInterfaceRef</t>
-  </si>
-  <si>
-    <t>BaseAddresses_or_range</t>
-  </si>
-  <si>
-    <t>$bus_interface_type</t>
-  </si>
-  <si>
-    <t>$remapdesc</t>
-  </si>
-  <si>
-    <t>Comp Name</t>
-  </si>
-  <si>
-    <t>Instance Description</t>
-  </si>
-  <si>
-    <t>Instance Ref</t>
-  </si>
-  <si>
-    <t>I_Bus</t>
-  </si>
-  <si>
-    <t>BusProperties</t>
-  </si>
-  <si>
-    <t>Bus connection  Desc</t>
-  </si>
-  <si>
-    <t>T_Bus</t>
-  </si>
-  <si>
-    <t>Sinitiator</t>
-  </si>
-  <si>
-    <t>I_Signal</t>
-  </si>
-  <si>
-    <t>SignalProperties</t>
-  </si>
-  <si>
-    <t>T_Signal</t>
-  </si>
-  <si>
-    <t>Signal connections Desc</t>
-  </si>
-  <si>
-    <t>View</t>
-  </si>
-  <si>
-    <t>$address_space</t>
-  </si>
-  <si>
-    <t>localMemorymap</t>
-  </si>
-  <si>
-    <t>$local_memorymap</t>
-  </si>
-  <si>
-    <t>$address_block</t>
-  </si>
-  <si>
-    <t>$address_offset</t>
-  </si>
-  <si>
-    <t>$base_address</t>
-  </si>
-  <si>
-    <t>$address_unit</t>
-  </si>
-  <si>
-    <t>$range</t>
-  </si>
-  <si>
-    <t>$width</t>
-  </si>
-  <si>
-    <t>$address_description</t>
-  </si>
-  <si>
-    <t>addressSpaceDescription</t>
-  </si>
-  <si>
-    <t>Block1</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>soce</t>
-  </si>
-  <si>
-    <t>Reg11</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>[31:0]</t>
-  </si>
-  <si>
-    <t>Reg12</t>
-  </si>
-  <si>
-    <t>hresetn</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>hclk</t>
-  </si>
-  <si>
-    <t>out</t>
-  </si>
-  <si>
-    <t>hresp[1:0]</t>
-  </si>
-  <si>
-    <t>htrans[1:0]</t>
-  </si>
-  <si>
-    <t>hwrite</t>
-  </si>
-  <si>
-    <t>hsize[2:0]</t>
-  </si>
-  <si>
-    <t>hprot[3:0]</t>
-  </si>
-  <si>
-    <t>hsel</t>
-  </si>
-  <si>
-    <t>hready</t>
-  </si>
-  <si>
-    <t>Reg11_enb</t>
-  </si>
-  <si>
-    <t>Reg11_F_in_enb</t>
-  </si>
-  <si>
-    <t>Reg12_enb</t>
-  </si>
-  <si>
-    <t>bus_width</t>
-  </si>
-  <si>
-    <t>addr_width</t>
-  </si>
-  <si>
-    <t>block_offset</t>
-  </si>
-  <si>
-    <t>Block1_address_width</t>
-  </si>
-  <si>
-    <t>amba_widget</t>
-  </si>
-  <si>
-    <t>Reg11_F_in[31:0]</t>
-  </si>
-  <si>
-    <t>Reg11_F_r[31:0]</t>
-  </si>
-  <si>
-    <t>Reg12_F_r[31:0]</t>
-  </si>
-  <si>
-    <t>hrdata[$bus_width -1:0]</t>
-  </si>
-  <si>
-    <t>hwdata[$bus_width -1:0]</t>
-  </si>
-  <si>
-    <t>haddr[$addr_width -1:0]</t>
-  </si>
-  <si>
-    <t>spec_type</t>
-  </si>
-  <si>
-    <t>ams_discipline</t>
-  </si>
-  <si>
-    <t>{connectionRequired=true}</t>
-  </si>
-  <si>
-    <t>soce,example,amba_widget,1</t>
-  </si>
-  <si>
-    <t>hrdata</t>
-  </si>
-  <si>
-    <t>haddr</t>
-  </si>
-  <si>
-    <t>hwdata</t>
-  </si>
-  <si>
-    <t>htrans</t>
-  </si>
-  <si>
-    <t>hresp</t>
-  </si>
-  <si>
-    <t>hsize</t>
-  </si>
-  <si>
-    <t>hprot</t>
-  </si>
-  <si>
-    <t>hburst</t>
-  </si>
-  <si>
-    <t>hburst[2:0]</t>
   </si>
 </sst>
 </file>
@@ -3205,7 +3202,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -3216,7 +3213,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="94" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -3227,7 +3224,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="94" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -3558,8 +3555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F191"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3659,7 +3656,7 @@
     <row r="9" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
       <c r="B9" s="37" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C9" s="38" t="s">
         <v>30</v>
@@ -3714,7 +3711,7 @@
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C13" s="43" t="s">
         <v>41</v>
@@ -3834,7 +3831,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="42" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C23" s="43" t="s">
         <v>64</v>
@@ -3930,7 +3927,7 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="47"/>
       <c r="B30" s="42" t="s">
-        <v>294</v>
+        <v>353</v>
       </c>
       <c r="C30" s="43" t="s">
         <v>84</v>
@@ -4021,7 +4018,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="42" t="s">
-        <v>376</v>
+        <v>454</v>
       </c>
       <c r="C38" s="43" t="s">
         <v>98</v>
@@ -4034,7 +4031,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="42" t="s">
-        <v>377</v>
+        <v>443</v>
       </c>
       <c r="C39" s="43" t="s">
         <v>100</v>
@@ -4048,7 +4045,7 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="47"/>
       <c r="B40" s="42" t="s">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="C40" s="43" t="s">
         <v>102</v>
@@ -4063,7 +4060,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" s="53" t="s">
-        <v>379</v>
+        <v>445</v>
       </c>
       <c r="C41" s="43" t="s">
         <v>105</v>
@@ -4079,7 +4076,7 @@
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="47"/>
       <c r="B42" s="42" t="s">
-        <v>380</v>
+        <v>446</v>
       </c>
       <c r="C42" s="43" t="s">
         <v>107</v>
@@ -4094,7 +4091,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" s="42" t="s">
-        <v>381</v>
+        <v>447</v>
       </c>
       <c r="C43" s="54" t="s">
         <v>110</v>
@@ -4266,7 +4263,7 @@
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="56"/>
       <c r="B58" s="42" t="s">
-        <v>372</v>
+        <v>448</v>
       </c>
       <c r="C58" s="54" t="s">
         <v>143</v>
@@ -4501,7 +4498,7 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="77" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="C77" s="76" t="s">
         <v>236</v>
@@ -4616,7 +4613,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B88" s="62" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="C88" s="63" t="s">
         <v>185</v>
@@ -4649,7 +4646,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B91" s="62" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="C91" s="63" t="s">
         <v>189</v>
@@ -4841,7 +4838,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B109" s="62" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="C109" s="63" t="s">
         <v>249</v>
@@ -4924,7 +4921,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B117" s="62" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="C117" s="63" t="s">
         <v>251</v>
@@ -4957,10 +4954,10 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B120" s="62" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C120" s="63" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="D120" s="64"/>
       <c r="E120" s="65"/>
@@ -4968,10 +4965,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B121" s="62" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C121" s="63" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D121" s="64"/>
       <c r="E121" s="65"/>
@@ -5040,7 +5037,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B128" s="62" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="C128" s="63" t="s">
         <v>319</v>
@@ -5084,7 +5081,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B132" s="62" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C132" s="63" t="s">
         <v>326</v>
@@ -5095,7 +5092,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B133" s="62" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="C133" s="63" t="s">
         <v>327</v>
@@ -5141,7 +5138,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B138" s="62" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C138" s="63" t="s">
         <v>331</v>
@@ -5163,7 +5160,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B140" s="62" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="C140" s="63" t="s">
         <v>334</v>
@@ -5174,7 +5171,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B141" s="62" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="C141" s="63" t="s">
         <v>335</v>
@@ -5185,7 +5182,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B142" s="62" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C142" s="63" t="s">
         <v>336</v>
@@ -5213,7 +5210,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B145" s="62" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="C145" s="63" t="s">
         <v>338</v>
@@ -5224,7 +5221,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B146" s="62" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="C146" s="63" t="s">
         <v>339</v>
@@ -5246,7 +5243,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B148" s="62" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="C148" s="63" t="s">
         <v>342</v>
@@ -5257,7 +5254,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B149" s="62" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="C149" s="63" t="s">
         <v>343</v>
@@ -5268,7 +5265,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B150" s="62" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="C150" s="63" t="s">
         <v>344</v>
@@ -5289,7 +5286,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B152" s="62" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="C152" s="63" t="s">
         <v>278</v>
@@ -5369,7 +5366,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B160" s="62"/>
       <c r="C160" s="63"/>
@@ -5379,10 +5376,10 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B161" s="62" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C161" s="63" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="D161" s="64"/>
       <c r="E161" s="65"/>
@@ -5390,10 +5387,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B162" s="62" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="C162" s="63" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="D162" s="64"/>
       <c r="E162" s="65"/>
@@ -5401,10 +5398,10 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B163" s="62" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C163" s="63" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="D163" s="64"/>
       <c r="E163" s="65"/>
@@ -5412,10 +5409,10 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B164" s="62" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C164" s="63" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="D164" s="64"/>
       <c r="E164" s="65"/>
@@ -5423,10 +5420,10 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B165" s="62" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C165" s="63" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="D165" s="64"/>
       <c r="E165" s="65"/>
@@ -5434,10 +5431,10 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B166" s="62" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C166" s="63" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="D166" s="64"/>
       <c r="E166" s="65"/>
@@ -5445,10 +5442,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B167" s="62" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C167" s="63" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="D167" s="64"/>
       <c r="E167" s="65"/>
@@ -5456,10 +5453,10 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B168" s="62" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C168" s="63" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="D168" s="64"/>
       <c r="E168" s="65"/>
@@ -5467,10 +5464,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B169" s="62" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="C169" s="63" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="D169" s="64"/>
       <c r="E169" s="65"/>
@@ -5704,7 +5701,7 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="16"/>
       <c r="C4" s="7" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="D4" s="7">
         <v>32</v>
@@ -5714,7 +5711,7 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="16"/>
       <c r="C5" s="7" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="D5" s="7">
         <v>3</v>
@@ -5724,7 +5721,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="16"/>
       <c r="C6" s="7" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
@@ -5734,7 +5731,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="16"/>
       <c r="C7" s="7" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="D7" s="7">
         <v>3</v>
@@ -5790,7 +5787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
@@ -5838,20 +5835,20 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -5859,10 +5856,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -5870,10 +5867,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -5881,10 +5878,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -5892,10 +5889,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -5903,10 +5900,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -5914,10 +5911,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -5925,10 +5922,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -5936,10 +5933,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -5947,10 +5944,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -5958,10 +5955,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -5969,10 +5966,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -5980,10 +5977,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="C16" s="92" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -5991,10 +5988,10 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="C17" s="92" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -6002,10 +5999,10 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="C18" s="92" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -6013,10 +6010,10 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="C19" s="92" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -6024,10 +6021,10 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="C20" s="92" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -6035,10 +6032,10 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="C21" s="92" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -6218,7 +6215,7 @@
         <v>303</v>
       </c>
       <c r="F2" s="141" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G2" s="143" t="s">
         <v>304</v>
@@ -6230,18 +6227,18 @@
         <v>306</v>
       </c>
       <c r="J2" s="141" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="E3" s="109" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="F3" s="109"/>
       <c r="G3" s="109"/>
@@ -6253,10 +6250,10 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4"/>
       <c r="C4" s="9" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -6269,10 +6266,10 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5"/>
       <c r="C5" s="11" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -6285,10 +6282,10 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6"/>
       <c r="C6" s="11" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -6301,10 +6298,10 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7"/>
       <c r="C7" s="11" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -6317,10 +6314,10 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8"/>
       <c r="C8" s="11" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -6333,10 +6330,10 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9"/>
       <c r="C9" s="11" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -6349,10 +6346,10 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10"/>
       <c r="C10" s="11" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -6365,10 +6362,10 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11"/>
       <c r="C11" s="11" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -6381,10 +6378,10 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12"/>
       <c r="C12" s="11" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -6397,10 +6394,10 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13"/>
       <c r="C13" s="11" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -6413,10 +6410,10 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14"/>
       <c r="C14" s="11" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -6429,10 +6426,10 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15"/>
       <c r="C15" s="11" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -6445,10 +6442,10 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16"/>
       <c r="C16" s="11" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -7250,38 +7247,38 @@
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="157" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B1" s="158"/>
       <c r="C1" s="139"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>364</v>
-      </c>
       <c r="H2" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -7316,11 +7313,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7335,7 +7332,7 @@
     <col min="11" max="11" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="151" t="s">
         <v>262</v>
       </c>
@@ -7349,99 +7346,96 @@
       <c r="G1" s="150"/>
       <c r="H1" s="150"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="160"/>
       <c r="B2" s="161"/>
       <c r="C2" s="162"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="133" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="B3" s="133" t="s">
         <v>365</v>
       </c>
       <c r="C3" s="133" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="D3" s="133" t="s">
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="E3" s="133" t="s">
-        <v>367</v>
+        <v>449</v>
       </c>
       <c r="F3" s="133" t="s">
-        <v>368</v>
+        <v>450</v>
       </c>
       <c r="G3" s="133" t="s">
-        <v>369</v>
+        <v>451</v>
       </c>
       <c r="H3" s="133" t="s">
-        <v>370</v>
+        <v>452</v>
       </c>
       <c r="I3" s="133" t="s">
-        <v>371</v>
+        <v>448</v>
       </c>
       <c r="J3" s="133" t="s">
-        <v>372</v>
-      </c>
-      <c r="K3" s="133" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>414</v>
-      </c>
-      <c r="D5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C5">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>402</v>
+      </c>
       <c r="E6" t="s">
-        <v>415</v>
+        <v>103</v>
       </c>
       <c r="F6" t="s">
         <v>103</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>402</v>
+      </c>
+      <c r="E8" t="s">
         <v>103</v>
       </c>
-      <c r="H6">
+      <c r="F8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8">
         <v>0</v>
       </c>
-      <c r="I6" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>417</v>
-      </c>
-      <c r="D7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>415</v>
-      </c>
-      <c r="F8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" t="s">
-        <v>108</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>416</v>
+      <c r="H8" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
